--- a/Selection/excess return.xlsx
+++ b/Selection/excess return.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -408,7 +408,7 @@
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -420,7 +420,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -437,7 +437,7 @@
         <v>40329</v>
       </c>
       <c r="B3">
-        <v>1.036581364585774</v>
+        <v>1.025280388635631</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -445,7 +445,7 @@
         <v>40359</v>
       </c>
       <c r="B4">
-        <v>1.0374744743683266</v>
+        <v>1.0347407512624029</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -453,7 +453,7 @@
         <v>40390</v>
       </c>
       <c r="B5">
-        <v>1.0564196880263204</v>
+        <v>1.05187589452805</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -461,7 +461,7 @@
         <v>40421</v>
       </c>
       <c r="B6">
-        <v>1.1007876848940048</v>
+        <v>1.09491097969113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -469,7 +469,7 @@
         <v>40451</v>
       </c>
       <c r="B7">
-        <v>1.1232377633264969</v>
+        <v>1.123345679218847</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -477,7 +477,7 @@
         <v>40482</v>
       </c>
       <c r="B8">
-        <v>1.1000207712456778</v>
+        <v>1.0889535013198051</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -485,7 +485,7 @@
         <v>40512</v>
       </c>
       <c r="B9">
-        <v>1.1584142549691543</v>
+        <v>1.153527518585677</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -493,7 +493,7 @@
         <v>40543</v>
       </c>
       <c r="B10">
-        <v>1.1732038000728771</v>
+        <v>1.1679327707430529</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -501,7 +501,7 @@
         <v>40574</v>
       </c>
       <c r="B11">
-        <v>1.2002626101472431</v>
+        <v>1.192754552329242</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -509,7 +509,7 @@
         <v>40602</v>
       </c>
       <c r="B12">
-        <v>1.1730784381246429</v>
+        <v>1.166367811808547</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -517,7 +517,7 @@
         <v>40633</v>
       </c>
       <c r="B13">
-        <v>1.17208180322745</v>
+        <v>1.1666019891642101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -525,7 +525,7 @@
         <v>40663</v>
       </c>
       <c r="B14">
-        <v>1.1845806529866438</v>
+        <v>1.173260217132752</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -533,7 +533,7 @@
         <v>40694</v>
       </c>
       <c r="B15">
-        <v>1.1900978360642389</v>
+        <v>1.1822575409253611</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -541,7 +541,7 @@
         <v>40724</v>
       </c>
       <c r="B16">
-        <v>1.2277715248923371</v>
+        <v>1.2168690559378561</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -549,7 +549,7 @@
         <v>40755</v>
       </c>
       <c r="B17">
-        <v>1.2550093829680353</v>
+        <v>1.2433762002740629</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -557,7 +557,7 @@
         <v>40786</v>
       </c>
       <c r="B18">
-        <v>1.2613321468326621</v>
+        <v>1.2545449737264149</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -565,7 +565,7 @@
         <v>40816</v>
       </c>
       <c r="B19">
-        <v>1.2610297142311149</v>
+        <v>1.24777854594802</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -573,7 +573,7 @@
         <v>40847</v>
       </c>
       <c r="B20">
-        <v>1.2362089205852311</v>
+        <v>1.229826609621703</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -581,7 +581,7 @@
         <v>40877</v>
       </c>
       <c r="B21">
-        <v>1.239807232663273</v>
+        <v>1.2332158504257671</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -589,7 +589,7 @@
         <v>40908</v>
       </c>
       <c r="B22">
-        <v>1.276293924700207</v>
+        <v>1.2712848070977629</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -597,7 +597,7 @@
         <v>40939</v>
       </c>
       <c r="B23">
-        <v>1.2665759142176267</v>
+        <v>1.2628409483386871</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -605,7 +605,7 @@
         <v>40968</v>
       </c>
       <c r="B24">
-        <v>1.2544923257667708</v>
+        <v>1.2471490519856441</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -613,7 +613,7 @@
         <v>40999</v>
       </c>
       <c r="B25">
-        <v>1.265782272930057</v>
+        <v>1.257424866644357</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -621,7 +621,7 @@
         <v>41029</v>
       </c>
       <c r="B26">
-        <v>1.2608678222289569</v>
+        <v>1.253603695939288</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -629,7 +629,7 @@
         <v>41060</v>
       </c>
       <c r="B27">
-        <v>1.2788529480744075</v>
+        <v>1.2735578737449309</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -637,7 +637,7 @@
         <v>41090</v>
       </c>
       <c r="B28">
-        <v>1.3051144745093675</v>
+        <v>1.298998746395128</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -645,7 +645,7 @@
         <v>41121</v>
       </c>
       <c r="B29">
-        <v>1.311125296763012</v>
+        <v>1.3044665275965579</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -653,7 +653,7 @@
         <v>41152</v>
       </c>
       <c r="B30">
-        <v>1.335976624325784</v>
+        <v>1.325763352789658</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -661,7 +661,7 @@
         <v>41182</v>
       </c>
       <c r="B31">
-        <v>1.3343964906859047</v>
+        <v>1.3337936732740241</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -669,7 +669,7 @@
         <v>41213</v>
       </c>
       <c r="B32">
-        <v>1.3531108503856826</v>
+        <v>1.3474401518731109</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -677,7 +677,7 @@
         <v>41243</v>
       </c>
       <c r="B33">
-        <v>1.3579872868023939</v>
+        <v>1.351265876350227</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -685,7 +685,7 @@
         <v>41274</v>
       </c>
       <c r="B34">
-        <v>1.301574081829306</v>
+        <v>1.2961312264824341</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -693,7 +693,7 @@
         <v>41305</v>
       </c>
       <c r="B35">
-        <v>1.2578911791627929</v>
+        <v>1.255349620185821</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -701,7 +701,7 @@
         <v>41333</v>
       </c>
       <c r="B36">
-        <v>1.25837516380054</v>
+        <v>1.256228660958719</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -709,7 +709,7 @@
         <v>41364</v>
       </c>
       <c r="B37">
-        <v>1.3071899652123502</v>
+        <v>1.2969719473669561</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -717,7 +717,7 @@
         <v>41394</v>
       </c>
       <c r="B38">
-        <v>1.2994439455142266</v>
+        <v>1.29265651026698</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -725,7 +725,7 @@
         <v>41425</v>
       </c>
       <c r="B39">
-        <v>1.2809227107919163</v>
+        <v>1.2750717410249699</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -733,7 +733,7 @@
         <v>41455</v>
       </c>
       <c r="B40">
-        <v>1.3237593515532884</v>
+        <v>1.3278998963154489</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -741,7 +741,7 @@
         <v>41486</v>
       </c>
       <c r="B41">
-        <v>1.3531284211296988</v>
+        <v>1.3437652510303819</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -749,7 +749,7 @@
         <v>41517</v>
       </c>
       <c r="B42">
-        <v>1.3192372999989681</v>
+        <v>1.3123241850249949</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -757,7 +757,7 @@
         <v>41547</v>
       </c>
       <c r="B43">
-        <v>1.3123019973157652</v>
+        <v>1.305910122894302</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -765,7 +765,7 @@
         <v>41578</v>
       </c>
       <c r="B44">
-        <v>1.3013644556520487</v>
+        <v>1.296473263437818</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -773,7 +773,7 @@
         <v>41608</v>
       </c>
       <c r="B45">
-        <v>1.3010647828080226</v>
+        <v>1.295688272465797</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -781,7 +781,7 @@
         <v>41639</v>
       </c>
       <c r="B46">
-        <v>1.3112187074404797</v>
+        <v>1.3029778645420871</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -789,7 +789,7 @@
         <v>41670</v>
       </c>
       <c r="B47">
-        <v>1.3414033157658289</v>
+        <v>1.330347196740588</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -797,7 +797,7 @@
         <v>41698</v>
       </c>
       <c r="B48">
-        <v>1.3688689809245669</v>
+        <v>1.3650956616367049</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -805,7 +805,7 @@
         <v>41729</v>
       </c>
       <c r="B49">
-        <v>1.3835889297094592</v>
+        <v>1.379395829565073</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -813,7 +813,7 @@
         <v>41759</v>
       </c>
       <c r="B50">
-        <v>1.3816902283325261</v>
+        <v>1.3712253584568721</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -821,7 +821,7 @@
         <v>41790</v>
       </c>
       <c r="B51">
-        <v>1.3906610214597981</v>
+        <v>1.3817752838041779</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -829,7 +829,7 @@
         <v>41820</v>
       </c>
       <c r="B52">
-        <v>1.4103182216605039</v>
+        <v>1.40376182875523</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -837,7 +837,7 @@
         <v>41851</v>
       </c>
       <c r="B53">
-        <v>1.384899162190443</v>
+        <v>1.385474266662438</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -845,7 +845,7 @@
         <v>41882</v>
       </c>
       <c r="B54">
-        <v>1.3849468608997069</v>
+        <v>1.3806506018440989</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -853,7 +853,7 @@
         <v>41912</v>
       </c>
       <c r="B55">
-        <v>1.3876457577697094</v>
+        <v>1.381056979572981</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -861,7 +861,7 @@
         <v>41943</v>
       </c>
       <c r="B56">
-        <v>1.3922924529167093</v>
+        <v>1.3882415828609049</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -869,7 +869,7 @@
         <v>41973</v>
       </c>
       <c r="B57">
-        <v>1.3750449778488785</v>
+        <v>1.380436509312533</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -877,7 +877,7 @@
         <v>42004</v>
       </c>
       <c r="B58">
-        <v>1.3663328508394845</v>
+        <v>1.3630576028638379</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
         <v>42035</v>
       </c>
       <c r="B59">
-        <v>1.435561561809807</v>
+        <v>1.420948138430032</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -893,7 +893,7 @@
         <v>42063</v>
       </c>
       <c r="B60">
-        <v>1.4184064584932701</v>
+        <v>1.4113952572246691</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -901,7 +901,7 @@
         <v>42094</v>
       </c>
       <c r="B61">
-        <v>1.4363324577274084</v>
+        <v>1.42529623171661</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -909,7 +909,7 @@
         <v>42124</v>
       </c>
       <c r="B62">
-        <v>1.4474808385420559</v>
+        <v>1.44117947316095</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -917,7 +917,7 @@
         <v>42155</v>
       </c>
       <c r="B63">
-        <v>1.4235441484914406</v>
+        <v>1.4196001683345429</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -925,7 +925,7 @@
         <v>42185</v>
       </c>
       <c r="B64">
-        <v>1.5111783705425177</v>
+        <v>1.5064181637504399</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -933,7 +933,7 @@
         <v>42216</v>
       </c>
       <c r="B65">
-        <v>1.5521111615481562</v>
+        <v>1.5539133579266839</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -941,7 +941,7 @@
         <v>42247</v>
       </c>
       <c r="B66">
-        <v>1.6055715667391925</v>
+        <v>1.601063860739411</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -949,7 +949,7 @@
         <v>42277</v>
       </c>
       <c r="B67">
-        <v>1.5645058381511356</v>
+        <v>1.5573672842770869</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -957,7 +957,7 @@
         <v>42308</v>
       </c>
       <c r="B68">
-        <v>1.5623248567220169</v>
+        <v>1.553908787379755</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -965,7 +965,7 @@
         <v>42338</v>
       </c>
       <c r="B69">
-        <v>1.5542583298973591</v>
+        <v>1.5456432285231829</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -973,7 +973,7 @@
         <v>42369</v>
       </c>
       <c r="B70">
-        <v>1.542702020932909</v>
+        <v>1.532672044526403</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -981,7 +981,7 @@
         <v>42400</v>
       </c>
       <c r="B71">
-        <v>1.5665965813680103</v>
+        <v>1.5556923847670401</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -989,7 +989,7 @@
         <v>42429</v>
       </c>
       <c r="B72">
-        <v>1.5802634178424442</v>
+        <v>1.576491027872287</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -997,7 +997,7 @@
         <v>42460</v>
       </c>
       <c r="B73">
-        <v>1.5789396186301208</v>
+        <v>1.5719501108074621</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -1005,7 +1005,7 @@
         <v>42490</v>
       </c>
       <c r="B74">
-        <v>1.5664108196520738</v>
+        <v>1.558848814574008</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -1013,7 +1013,7 @@
         <v>42521</v>
       </c>
       <c r="B75">
-        <v>1.5639725460325422</v>
+        <v>1.562552438294601</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -1021,7 +1021,7 @@
         <v>42551</v>
       </c>
       <c r="B76">
-        <v>1.6064192151806036</v>
+        <v>1.5992848094334959</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -1029,7 +1029,7 @@
         <v>42582</v>
       </c>
       <c r="B77">
-        <v>1.6218567423605701</v>
+        <v>1.6145456560903551</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -1037,7 +1037,7 @@
         <v>42613</v>
       </c>
       <c r="B78">
-        <v>1.6037950585961984</v>
+        <v>1.598968851007037</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -1045,7 +1045,7 @@
         <v>42643</v>
       </c>
       <c r="B79">
-        <v>1.6075500837455574</v>
+        <v>1.6008172829194609</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1053,7 +1053,7 @@
         <v>42674</v>
       </c>
       <c r="B80">
-        <v>1.6233162871190709</v>
+        <v>1.6168393201367881</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1061,7 +1061,7 @@
         <v>42704</v>
       </c>
       <c r="B81">
-        <v>1.6122161101185353</v>
+        <v>1.6056304281803939</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1069,7 +1069,7 @@
         <v>42735</v>
       </c>
       <c r="B82">
-        <v>1.6307549786420155</v>
+        <v>1.622541354267071</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1077,7 +1077,7 @@
         <v>42766</v>
       </c>
       <c r="B83">
-        <v>1.6287267719753218</v>
+        <v>1.621818097019486</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1085,7 +1085,7 @@
         <v>42794</v>
       </c>
       <c r="B84">
-        <v>1.6408000119228952</v>
+        <v>1.6352588115843381</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1093,7 +1093,7 @@
         <v>42825</v>
       </c>
       <c r="B85">
-        <v>1.6949498084308181</v>
+        <v>1.6901059073418561</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1101,7 +1101,7 @@
         <v>42855</v>
       </c>
       <c r="B86">
-        <v>1.7252821943889849</v>
+        <v>1.7200421635926171</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1109,7 +1109,7 @@
         <v>42886</v>
       </c>
       <c r="B87">
-        <v>1.7263537835893428</v>
+        <v>1.7211585696538949</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1117,7 +1117,7 @@
         <v>42916</v>
       </c>
       <c r="B88">
-        <v>1.7547608978115912</v>
+        <v>1.747344144684887</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1125,7 +1125,7 @@
         <v>42947</v>
       </c>
       <c r="B89">
-        <v>1.7590261783033103</v>
+        <v>1.7522962051705551</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1133,7 +1133,7 @@
         <v>42978</v>
       </c>
       <c r="B90">
-        <v>1.741282405148536</v>
+        <v>1.735644998040319</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1141,7 +1141,7 @@
         <v>43008</v>
       </c>
       <c r="B91">
-        <v>1.7629269380292789</v>
+        <v>1.7582440148696641</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1149,7 +1149,7 @@
         <v>43039</v>
       </c>
       <c r="B92">
-        <v>1.8001681229967754</v>
+        <v>1.794899200507222</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1157,7 +1157,7 @@
         <v>43069</v>
       </c>
       <c r="B93">
-        <v>1.7958403156645253</v>
+        <v>1.788213521075569</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
         <v>43100</v>
       </c>
       <c r="B94">
-        <v>1.8157756477977405</v>
+        <v>1.810023098478271</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1173,7 +1173,7 @@
         <v>43131</v>
       </c>
       <c r="B95">
-        <v>1.8165815887236458</v>
+        <v>1.8122302477365551</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1181,7 +1181,7 @@
         <v>43159</v>
       </c>
       <c r="B96">
-        <v>1.8376122327648416</v>
+        <v>1.8269714783264339</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1189,7 +1189,7 @@
         <v>43190</v>
       </c>
       <c r="B97">
-        <v>1.8293689567309943</v>
+        <v>1.823163437910315</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1197,7 +1197,7 @@
         <v>43220</v>
       </c>
       <c r="B98">
-        <v>1.83805435656756</v>
+        <v>1.831223690491353</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1205,7 +1205,7 @@
         <v>43251</v>
       </c>
       <c r="B99">
-        <v>1.8446229207863949</v>
+        <v>1.840094795106195</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1213,7 +1213,7 @@
         <v>43281</v>
       </c>
       <c r="B100">
-        <v>1.8776309565031544</v>
+        <v>1.8711014964146391</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1221,7 +1221,7 @@
         <v>43312</v>
       </c>
       <c r="B101">
-        <v>1.868245933597678</v>
+        <v>1.863505862955708</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -1229,7 +1229,7 @@
         <v>43343</v>
       </c>
       <c r="B102">
-        <v>1.8563285463962518</v>
+        <v>1.850390447256052</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -1237,7 +1237,7 @@
         <v>43373</v>
       </c>
       <c r="B103">
-        <v>1.855199817216354</v>
+        <v>1.8523413614727671</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1245,7 +1245,7 @@
         <v>43404</v>
       </c>
       <c r="B104">
-        <v>1.8070512728608976</v>
+        <v>1.801056170183668</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1253,7 +1253,7 @@
         <v>43434</v>
       </c>
       <c r="B105">
-        <v>1.8100995222633314</v>
+        <v>1.8046156415394781</v>
       </c>
     </row>
   </sheetData>
